--- a/data/trans_bre/P19_1_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P19_1_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,62</t>
+          <t>-24,35</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,57</t>
+          <t>-4,25</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,57</t>
+          <t>-4,1</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>-1,77</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>41,37%</t>
+          <t>5,23</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>30,76%</t>
+          <t>-26,11%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>68,34%</t>
+          <t>-4,89%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>13,46%</t>
+          <t>-4,71%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-2,08%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>6,11%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 19,89</t>
+          <t>-40,47; -8,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,95; 15,57</t>
+          <t>-19,78; 12,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 17,51</t>
+          <t>-19,95; 13,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,59; 13,34</t>
+          <t>-17,78; 15,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-32,6; 220,96</t>
+          <t>-8,79; 22,34</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-49,7; 283,1</t>
+          <t>-42,57; -10,17</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-38,3; 386,07</t>
+          <t>-21,15; 16,51</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-51,2; 176,47</t>
+          <t>-21,62; 16,68</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-19,12; 20,87</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-9,27; 31,55</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-5,4</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,16</t>
+          <t>-3,99</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,79</t>
+          <t>-12,45</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-20,34</t>
+          <t>36,17</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-21,91%</t>
+          <t>-5,72</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>16,2%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>37,93%</t>
+          <t>-4,58%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-68,08%</t>
+          <t>-13,79%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>67,42%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-6,14%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-25,57; 8,33</t>
+          <t>-19,48; 33,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,05; 12,76</t>
+          <t>-17,53; 10,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-7,2; 15,07</t>
+          <t>-27,25; 0,89</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-45,24; -2,2</t>
+          <t>10,15; 63,55</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-68,45; 56,83</t>
+          <t>-17,57; 4,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-48,88; 166,31</t>
+          <t>-21,36; 66,81</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-37,74; 239,32</t>
+          <t>-19,12; 13,55</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-91,04; -14,1</t>
+          <t>-29,27; 0,92</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>13,04; 234,42</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-18,66; 5,57</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,51</t>
+          <t>-0,72</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-16,55</t>
+          <t>11,57</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,14</t>
+          <t>-5,12</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>-0,82</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,42%</t>
+          <t>11,48</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-54,89%</t>
+          <t>-0,88%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>40,94%</t>
+          <t>15,38%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>-5,69%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-0,99%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>14,29%</t>
         </is>
       </c>
     </row>
@@ -868,42 +934,52 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,5; 8,81</t>
+          <t>-12,27; 11,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-34,53; -4,55</t>
+          <t>-1,34; 24,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 14,4</t>
+          <t>-15,86; 5,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,61; 9,36</t>
+          <t>-11,69; 12,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-40,94; 58,52</t>
+          <t>0,49; 25,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-76,09; -17,76</t>
+          <t>-13,99; 16,43</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-22,32; 166,11</t>
+          <t>-1,26; 37,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-42,68; 105,61</t>
+          <t>-16,71; 6,23</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-12,74; 16,01</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0,55; 37,24</t>
         </is>
       </c>
     </row>
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,1</t>
+          <t>-14,43</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,58</t>
+          <t>-6,67</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,75</t>
+          <t>-6,34</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,3</t>
+          <t>-8,37</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>66,6%</t>
+          <t>-4,96</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>40,65%</t>
+          <t>-16,27%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>14,84%</t>
+          <t>-8,24%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>15,89%</t>
+          <t>-7,73%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-9,42%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-5,5%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1054,52 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,5; 18,66</t>
+          <t>-24,59; -2,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 15,58</t>
+          <t>-18,94; 4,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,59; 11,23</t>
+          <t>-18,18; 5,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,95; 10,6</t>
+          <t>-18,79; 2,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,72; 166,43</t>
+          <t>-14,61; 4,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-12,18; 134,96</t>
+          <t>-26,91; -3,15</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-31,97; 85,81</t>
+          <t>-21,98; 6,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-32,17; 114,16</t>
+          <t>-20,38; 6,54</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-20,41; 2,99</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-15,6; 5,71</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1116,52 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,64</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>15,71</t>
+          <t>-16,75</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,77</t>
+          <t>2,41</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>-5,83</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-3,23%</t>
+          <t>0,02%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>133,81%</t>
+          <t>-0,63%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-12,15%</t>
+          <t>-19,66%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>2,93%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-6,51%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1174,52 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,99; 12,02</t>
+          <t>-13,98; 12,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,14; 10,64</t>
+          <t>-17,58; 13,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,35; 26,97</t>
+          <t>-33,47; -2,33</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-11,43; 7,81</t>
+          <t>-13,0; 15,8</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-44,61; 86,67</t>
+          <t>-19,24; 6,97</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-41,83; 78,59</t>
+          <t>-16,03; 17,12</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>28,97; 352,2</t>
+          <t>-20,26; 19,08</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-60,56; 87,94</t>
+          <t>-39,11; -3,3</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-15,04; 20,95</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-20,64; 8,23</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1236,52 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5,0</t>
+          <t>-6,64</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>8,41</t>
+          <t>-8,91</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-3,04</t>
+          <t>-0,47</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>13,95</t>
+          <t>-15,61</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>28,18%</t>
+          <t>-12,42</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>56,32%</t>
+          <t>-7,68%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-15,7%</t>
+          <t>-10,37%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>191,11%</t>
+          <t>-0,55%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-16,13%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-13,07%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1294,52 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-7,82; 19,01</t>
+          <t>-24,21; 8,98</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 20,84</t>
+          <t>-25,86; 8,36</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-15,38; 8,99</t>
+          <t>-15,2; 13,93</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,75; 26,72</t>
+          <t>-30,07; -2,96</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-36,43; 184,18</t>
+          <t>-28,99; 0,55</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-31,77; 234,25</t>
+          <t>-26,84; 11,45</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-58,99; 66,79</t>
+          <t>-29,01; 10,72</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,05; 857,39</t>
+          <t>-16,56; 18,16</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-31,07; -3,63</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-30,48; 0,24</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1356,52 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,94</t>
+          <t>-7,0</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>-1,26</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,38</t>
+          <t>-6,89</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,72</t>
+          <t>3,28</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>15,62%</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-2,05%</t>
+          <t>-8,3%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>38,74%</t>
+          <t>-1,54%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-4,41%</t>
+          <t>-7,96%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>4,09%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-1,9%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1414,59 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 7,63</t>
+          <t>-13,05; 1,43</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 4,51</t>
+          <t>-7,5; 4,79</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,7; 9,46</t>
+          <t>-12,15; -1,28</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,44; 4,33</t>
+          <t>-3,98; 13,64</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-12,33; 47,06</t>
+          <t>-7,01; 3,52</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-27,44; 29,34</t>
+          <t>-15,04; 1,48</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,74; 80,66</t>
+          <t>-8,75; 6,11</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-36,78; 33,19</t>
+          <t>-13,67; -1,64</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-4,69; 19,11</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-7,62; 4,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1312,10 +1475,10 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
